--- a/Results/Val_Results.xlsx
+++ b/Results/Val_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C84C0-C747-4B8C-BA15-21094C0ACA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27D40C-C1AE-4C66-8E67-BCB6CD83AA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MariaTejada" sheetId="1" r:id="rId1"/>

--- a/Results/Val_Results.xlsx
+++ b/Results/Val_Results.xlsx
@@ -5,24 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\Exe_Val_Soft\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4B0154-7C22-4C57-BBB5-311DC72D141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A69307-B1CF-482B-8C59-3BA7ABA3E068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="195" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MariaTejada" sheetId="1" r:id="rId1"/>
     <sheet name="Razvan" sheetId="2" r:id="rId2"/>
     <sheet name="Oscar" sheetId="3" r:id="rId3"/>
+    <sheet name="Antonio" sheetId="4" r:id="rId4"/>
+    <sheet name="Inma" sheetId="5" r:id="rId5"/>
+    <sheet name="Javi" sheetId="6" r:id="rId6"/>
+    <sheet name="Cris_L" sheetId="7" r:id="rId7"/>
+    <sheet name="Carmen" sheetId="8" r:id="rId8"/>
+    <sheet name="Virginia" sheetId="9" r:id="rId9"/>
+    <sheet name="Esther" sheetId="10" r:id="rId10"/>
+    <sheet name="Cris_Be" sheetId="11" r:id="rId11"/>
+    <sheet name="Cris_V" sheetId="12" r:id="rId12"/>
+    <sheet name="Marta" sheetId="13" r:id="rId13"/>
+    <sheet name="Eva" sheetId="14" r:id="rId14"/>
+    <sheet name="Carmen_S" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="168">
   <si>
     <t>Tooth</t>
   </si>
@@ -388,6 +400,144 @@
   </si>
   <si>
     <t xml:space="preserve">C2, C1,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3_5, A4,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4, C2,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1, C2,  </t>
+  </si>
+  <si>
+    <t>0.5, 0.6, 0.0</t>
+  </si>
+  <si>
+    <t>C2, C3, C1</t>
+  </si>
+  <si>
+    <t>0.4, 0.5, 0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3, D2,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3,  ,  </t>
+  </si>
+  <si>
+    <t>B1, C1, D2</t>
+  </si>
+  <si>
+    <t>0.5, 0.2, 0.1</t>
+  </si>
+  <si>
+    <t>0.4, 0.3, 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2, B2,  </t>
+  </si>
+  <si>
+    <t>0.4, 0.4, 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3_5, A3,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4, D4,  </t>
+  </si>
+  <si>
+    <t>0.4, 0.2, 0.0</t>
+  </si>
+  <si>
+    <t>0.6, 0.1, 0.0</t>
+  </si>
+  <si>
+    <t>0.4, 0.1, 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3, B3,  </t>
+  </si>
+  <si>
+    <t>0.3, 0.3, 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4, B4,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2, D3,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3, C3,  </t>
+  </si>
+  <si>
+    <t>0.6, 0.3, 0.0</t>
+  </si>
+  <si>
+    <t>0.5, 0.3, 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3, D4,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3, A3,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3, D2,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2, D2,  </t>
+  </si>
+  <si>
+    <t>0.3, 0.3, 0.2</t>
+  </si>
+  <si>
+    <t>B2, C1, D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3, D2,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3_5, C3,  </t>
+  </si>
+  <si>
+    <t>0.3, 0.4, 0.0</t>
+  </si>
+  <si>
+    <t>C3, D3, D4</t>
+  </si>
+  <si>
+    <t>0.3, 0.3, 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4, C3,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4, C4,  </t>
+  </si>
+  <si>
+    <t>C1, C2, D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4, D3,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3, A3_5,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4, A4,  </t>
+  </si>
+  <si>
+    <t>0.1, 0.0, 0.0</t>
+  </si>
+  <si>
+    <t>C3, C4, A4</t>
+  </si>
+  <si>
+    <t>0.3, 0.3, 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3, A4,  </t>
   </si>
 </sst>
 </file>
@@ -1136,6 +1286,2442 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624D29F4-9349-4F17-9614-76123662D008}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A505BEE8-82C0-4D4D-9B24-387B09026829}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAB2D9F-ADD0-4E0A-BA88-4B6884870263}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801A483D-3D9D-455B-9774-9AF21FC7F214}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE20A29-AF52-4C5A-A956-CF678419E4B0}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE04C435-74C3-4C7B-A02A-2B752263402F}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G17"/>
@@ -1544,7 +4130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39EBA54-784C-4A90-8688-0E78CE689812}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
@@ -1944,4 +4530,2445 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3452AB8E-3877-43C5-9CE1-A9217328CB75}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A6BE15-E12E-4074-8A1D-B89AEC128C73}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="5" max="5" width="35.6328125" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24617C3-EE88-465B-B2CE-24569FA113FA}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4387CF-6D17-4C1F-A6BB-DFBD50450597}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57BED80-5472-4C18-A7AA-E254874AC30C}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD0C9E5-4F5F-41AB-AFED-59DFDA99E206}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/Val_Results.xlsx
+++ b/Results/Val_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A69307-B1CF-482B-8C59-3BA7ABA3E068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEF218E-774A-49D2-BD81-13E914829CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="195" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MariaTejada" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,19 @@
     <sheet name="Marta" sheetId="13" r:id="rId13"/>
     <sheet name="Eva" sheetId="14" r:id="rId14"/>
     <sheet name="Carmen_S" sheetId="15" r:id="rId15"/>
+    <sheet name="Mamen" sheetId="16" r:id="rId16"/>
+    <sheet name="David" sheetId="17" r:id="rId17"/>
+    <sheet name="Ana" sheetId="18" r:id="rId18"/>
+    <sheet name="Soundous" sheetId="19" r:id="rId19"/>
+    <sheet name="Julio" sheetId="20" r:id="rId20"/>
+    <sheet name="Noor" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="195">
   <si>
     <t>Tooth</t>
   </si>
@@ -538,6 +544,87 @@
   </si>
   <si>
     <t xml:space="preserve">C3, A4,  </t>
+  </si>
+  <si>
+    <t>0.7, 0.8, 0.0</t>
+  </si>
+  <si>
+    <t>0.5, 0.9, 0.0</t>
+  </si>
+  <si>
+    <t>0.5, 0.7, 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4, A4,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4, B4,  </t>
+  </si>
+  <si>
+    <t>1.0, 1.0, 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3_5, C1,  </t>
+  </si>
+  <si>
+    <t>0.6, 0.7, 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1, B1,  </t>
+  </si>
+  <si>
+    <t>0.4, 0.6, 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3, D3,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1, C1,  </t>
+  </si>
+  <si>
+    <t>0.9, 0.9, 0.0</t>
+  </si>
+  <si>
+    <t>0.1, 0.4, 0.0</t>
+  </si>
+  <si>
+    <t>0.5, 0.8, 0.0</t>
+  </si>
+  <si>
+    <t>0.6, 0.9, 0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2, A2,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3, B4,  </t>
+  </si>
+  <si>
+    <t>C3, B4, A3_5</t>
+  </si>
+  <si>
+    <t>0.5, 0.3, 0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1, D2,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3, D4,  </t>
+  </si>
+  <si>
+    <t>0.8, 0.7, 0.0</t>
+  </si>
+  <si>
+    <t>D4, A3_5, B4</t>
+  </si>
+  <si>
+    <t>0.4, 0.4, 0.3</t>
+  </si>
+  <si>
+    <t>0.7, 0.2, 0.0</t>
+  </si>
+  <si>
+    <t>0.8, 0.3, 0.0</t>
   </si>
 </sst>
 </file>
@@ -573,7 +660,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3320,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE04C435-74C3-4C7B-A02A-2B752263402F}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3715,6 +3805,1630 @@
       </c>
       <c r="G17" t="s">
         <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2A9504-F956-4F77-A16F-846D9D601F8B}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA7A0C4-7924-4221-BDE8-C7B3D10EA974}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AFC4C4-126A-4F23-81E0-ECA13E2C43A3}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7A3AEA-08BA-49F9-8D62-F1DB8BF9B212}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4123,6 +5837,818 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3908FCC-FA5B-4EDC-8233-5162C86E4F21}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729C4679-CCF1-4C4B-955E-5CAA66E867E5}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
